--- a/arsenic/raw-data/meta-arsenic.xlsx
+++ b/arsenic/raw-data/meta-arsenic.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b3bbfbef5e37dc7/Documents/R_PHD_analysis/Chapter3/16S/DNA/arsenic/raw-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{FC874E2C-5C94-4C61-A625-5B56D18C14CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14C3E187-A142-4F4D-9306-8E7B176AC4E8}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{FC874E2C-5C94-4C61-A625-5B56D18C14CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95A2BAF4-2B71-479C-8D2E-869D71247D3F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{07C23BD9-980A-46D7-8938-0E3DE2E10BC9}"/>
   </bookViews>
@@ -645,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DE06CA-9A05-4E52-A7E5-ED406C4952B7}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/arsenic/raw-data/meta-arsenic.xlsx
+++ b/arsenic/raw-data/meta-arsenic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b3bbfbef5e37dc7/Documents/R_PHD_analysis/Chapter3/16S/DNA/arsenic/raw-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="191" documentId="8_{FC874E2C-5C94-4C61-A625-5B56D18C14CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{435A30C9-18EA-4472-A14D-FDA1D279286C}"/>
+  <xr:revisionPtr revIDLastSave="212" documentId="8_{FC874E2C-5C94-4C61-A625-5B56D18C14CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E00D27FF-EE8D-4061-B6B8-FAC9B2AA5879}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{07C23BD9-980A-46D7-8938-0E3DE2E10BC9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="163">
   <si>
     <t>sample-id</t>
   </si>
@@ -436,9 +436,6 @@
     <t>MBC9S</t>
   </si>
   <si>
-    <t>MBC12AS</t>
-  </si>
-  <si>
     <t>MBC21S</t>
   </si>
   <si>
@@ -472,24 +469,15 @@
     <t>MBAS33</t>
   </si>
   <si>
-    <t>MBC25S</t>
-  </si>
-  <si>
     <t>MBAS2</t>
   </si>
   <si>
     <t>MBAS13</t>
   </si>
   <si>
-    <t>MBT35</t>
-  </si>
-  <si>
     <t>LR2_36_1</t>
   </si>
   <si>
-    <t>MBT36</t>
-  </si>
-  <si>
     <t>LRV_0_1</t>
   </si>
   <si>
@@ -499,28 +487,43 @@
     <t>LRV_12_3</t>
   </si>
   <si>
-    <t>MBT26</t>
-  </si>
-  <si>
-    <t>MBT27</t>
-  </si>
-  <si>
-    <t>MBT23</t>
-  </si>
-  <si>
-    <t>MBT24</t>
-  </si>
-  <si>
-    <t>MBT8</t>
-  </si>
-  <si>
-    <t>MBT9</t>
-  </si>
-  <si>
-    <t>MBT5</t>
-  </si>
-  <si>
-    <t>MBT6</t>
+    <t>MBC25A</t>
+  </si>
+  <si>
+    <t>MBC12A</t>
+  </si>
+  <si>
+    <t>LRV_8.5_3</t>
+  </si>
+  <si>
+    <t>MBA36</t>
+  </si>
+  <si>
+    <t>MBA34</t>
+  </si>
+  <si>
+    <t>MBA23</t>
+  </si>
+  <si>
+    <t>MBA24</t>
+  </si>
+  <si>
+    <t>MBA26</t>
+  </si>
+  <si>
+    <t>MBA27</t>
+  </si>
+  <si>
+    <t>MBA6</t>
+  </si>
+  <si>
+    <t>MBA5</t>
+  </si>
+  <si>
+    <t>MBA9</t>
+  </si>
+  <si>
+    <t>MBA8</t>
   </si>
 </sst>
 </file>
@@ -881,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DE06CA-9A05-4E52-A7E5-ED406C4952B7}">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -915,7 +918,7 @@
         <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -935,7 +938,7 @@
         <v>126</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -955,7 +958,7 @@
         <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -975,7 +978,7 @@
         <v>128</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -995,7 +998,7 @@
         <v>129</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -1015,7 +1018,7 @@
         <v>130</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -1035,7 +1038,7 @@
         <v>116</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -1055,7 +1058,7 @@
         <v>131</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -1075,7 +1078,7 @@
         <v>132</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -1095,7 +1098,7 @@
         <v>89</v>
       </c>
       <c r="B11" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -1115,7 +1118,7 @@
         <v>90</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -1131,10 +1134,12 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B13" s="1"/>
+      <c r="A13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" t="s">
+        <v>152</v>
+      </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
@@ -1153,7 +1158,7 @@
         <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -1173,7 +1178,7 @@
         <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -1193,7 +1198,7 @@
         <v>93</v>
       </c>
       <c r="B16" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -1213,7 +1218,7 @@
         <v>94</v>
       </c>
       <c r="B17" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
@@ -1233,7 +1238,7 @@
         <v>95</v>
       </c>
       <c r="B18" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -1253,7 +1258,7 @@
         <v>96</v>
       </c>
       <c r="B19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
@@ -1273,7 +1278,7 @@
         <v>101</v>
       </c>
       <c r="B20" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
@@ -1293,7 +1298,7 @@
         <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
@@ -1310,10 +1315,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B22" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
@@ -1333,7 +1338,7 @@
         <v>103</v>
       </c>
       <c r="B23" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
@@ -1353,7 +1358,7 @@
         <v>104</v>
       </c>
       <c r="B24" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
@@ -1370,10 +1375,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B25" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
@@ -1389,10 +1394,12 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B26" s="1"/>
+      <c r="A26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" t="s">
+        <v>149</v>
+      </c>
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -1408,10 +1415,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B27" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
@@ -1428,10 +1435,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B28" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
@@ -1451,7 +1458,7 @@
         <v>110</v>
       </c>
       <c r="B29" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C29" t="s">
         <v>13</v>
@@ -1471,7 +1478,7 @@
         <v>111</v>
       </c>
       <c r="B30" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
@@ -1491,7 +1498,7 @@
         <v>112</v>
       </c>
       <c r="B31" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C31" t="s">
         <v>13</v>
@@ -1511,7 +1518,7 @@
         <v>113</v>
       </c>
       <c r="B32" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C32" t="s">
         <v>13</v>
@@ -1528,10 +1535,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B33" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C33" t="s">
         <v>13</v>
@@ -1548,10 +1555,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B34" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C34" t="s">
         <v>13</v>
@@ -1571,7 +1578,7 @@
         <v>114</v>
       </c>
       <c r="B35" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C35" t="s">
         <v>13</v>
@@ -1588,10 +1595,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B36" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C36" t="s">
         <v>13</v>
@@ -1608,10 +1615,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B37" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C37" t="s">
         <v>13</v>
@@ -1631,7 +1638,7 @@
         <v>123</v>
       </c>
       <c r="B38" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
@@ -1648,7 +1655,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" t="s">
@@ -1669,7 +1676,7 @@
         <v>124</v>
       </c>
       <c r="B40" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
@@ -1689,7 +1696,7 @@
         <v>86</v>
       </c>
       <c r="B41" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
@@ -1709,7 +1716,7 @@
         <v>160</v>
       </c>
       <c r="B42" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
@@ -1726,10 +1733,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B43" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
@@ -1749,7 +1756,7 @@
         <v>115</v>
       </c>
       <c r="B44" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C44" t="s">
         <v>10</v>
@@ -1766,10 +1773,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B45" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C45" t="s">
         <v>10</v>
@@ -1786,10 +1793,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B46" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C46" t="s">
         <v>10</v>
@@ -1809,7 +1816,7 @@
         <v>117</v>
       </c>
       <c r="B47" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C47" t="s">
         <v>11</v>
@@ -1829,7 +1836,7 @@
         <v>118</v>
       </c>
       <c r="B48" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C48" t="s">
         <v>11</v>
@@ -1849,7 +1856,7 @@
         <v>119</v>
       </c>
       <c r="B49" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C49" t="s">
         <v>11</v>
@@ -1866,7 +1873,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" t="s">
@@ -1887,7 +1894,7 @@
         <v>120</v>
       </c>
       <c r="B51" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C51" t="s">
         <v>11</v>
@@ -1907,7 +1914,7 @@
         <v>121</v>
       </c>
       <c r="B52" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C52" t="s">
         <v>11</v>
@@ -1927,7 +1934,7 @@
         <v>122</v>
       </c>
       <c r="B53" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C53" t="s">
         <v>11</v>
@@ -1947,7 +1954,7 @@
         <v>87</v>
       </c>
       <c r="B54" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C54" t="s">
         <v>11</v>
@@ -1967,7 +1974,7 @@
         <v>88</v>
       </c>
       <c r="B55" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C55" t="s">
         <v>11</v>
@@ -1987,7 +1994,7 @@
         <v>97</v>
       </c>
       <c r="B56" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C56" t="s">
         <v>12</v>
@@ -2007,7 +2014,7 @@
         <v>98</v>
       </c>
       <c r="B57" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C57" t="s">
         <v>12</v>
@@ -2024,7 +2031,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" t="s">
@@ -2045,7 +2052,7 @@
         <v>99</v>
       </c>
       <c r="B59" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C59" t="s">
         <v>12</v>
@@ -2062,10 +2069,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B60" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C60" t="s">
         <v>12</v>
@@ -2082,10 +2089,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B61" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C61" t="s">
         <v>12</v>
@@ -2105,7 +2112,7 @@
         <v>100</v>
       </c>
       <c r="B62" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C62" t="s">
         <v>12</v>
@@ -2122,10 +2129,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B63" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C63" t="s">
         <v>12</v>
@@ -2142,10 +2149,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B64" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C64" t="s">
         <v>12</v>
@@ -2161,9 +2168,10 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>142</v>
-      </c>
+      <c r="A65" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B65" s="1"/>
       <c r="C65" t="s">
         <v>13</v>
       </c>
@@ -2182,7 +2190,7 @@
         <v>105</v>
       </c>
       <c r="B66" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C66" t="s">
         <v>13</v>
@@ -2202,7 +2210,7 @@
         <v>106</v>
       </c>
       <c r="B67" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C67" t="s">
         <v>13</v>
@@ -2222,7 +2230,7 @@
         <v>107</v>
       </c>
       <c r="B68" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C68" t="s">
         <v>13</v>
@@ -2242,7 +2250,7 @@
         <v>108</v>
       </c>
       <c r="B69" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C69" t="s">
         <v>13</v>
@@ -2258,9 +2266,10 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>144</v>
-      </c>
+      <c r="A70" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B70" s="1"/>
       <c r="C70" t="s">
         <v>13</v>
       </c>
@@ -2279,7 +2288,7 @@
         <v>109</v>
       </c>
       <c r="B71" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C71" t="s">
         <v>13</v>
@@ -2295,11 +2304,11 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>149</v>
+      <c r="A72" t="s">
+        <v>154</v>
+      </c>
+      <c r="B72" t="s">
+        <v>146</v>
       </c>
       <c r="C72" t="s">
         <v>13</v>
@@ -2315,11 +2324,11 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>149</v>
+      <c r="A73" t="s">
+        <v>153</v>
+      </c>
+      <c r="B73" t="s">
+        <v>146</v>
       </c>
       <c r="C73" t="s">
         <v>13</v>

--- a/arsenic/raw-data/meta-arsenic.xlsx
+++ b/arsenic/raw-data/meta-arsenic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b3bbfbef5e37dc7/Documents/R_PHD_analysis/Chapter3/16S/DNA/arsenic/raw-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="212" documentId="8_{FC874E2C-5C94-4C61-A625-5B56D18C14CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E00D27FF-EE8D-4061-B6B8-FAC9B2AA5879}"/>
+  <xr:revisionPtr revIDLastSave="252" documentId="8_{FC874E2C-5C94-4C61-A625-5B56D18C14CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E8A7BE8-FC46-4FFC-96D0-C26F23E6D237}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{07C23BD9-980A-46D7-8938-0E3DE2E10BC9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="164">
   <si>
     <t>sample-id</t>
   </si>
@@ -52,12 +52,6 @@
     <t>Treatment</t>
   </si>
   <si>
-    <t>control</t>
-  </si>
-  <si>
-    <t>arsenic</t>
-  </si>
-  <si>
     <t>D1</t>
   </si>
   <si>
@@ -499,31 +493,40 @@
     <t>MBA36</t>
   </si>
   <si>
-    <t>MBA34</t>
-  </si>
-  <si>
-    <t>MBA23</t>
-  </si>
-  <si>
-    <t>MBA24</t>
-  </si>
-  <si>
-    <t>MBA26</t>
-  </si>
-  <si>
-    <t>MBA27</t>
-  </si>
-  <si>
-    <t>MBA6</t>
-  </si>
-  <si>
-    <t>MBA5</t>
-  </si>
-  <si>
-    <t>MBA9</t>
-  </si>
-  <si>
-    <t>MBA8</t>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>MBT5</t>
+  </si>
+  <si>
+    <t>MBT6</t>
+  </si>
+  <si>
+    <t>MBT8</t>
+  </si>
+  <si>
+    <t>MBT9</t>
+  </si>
+  <si>
+    <t>MBT23</t>
+  </si>
+  <si>
+    <t>MBT24</t>
+  </si>
+  <si>
+    <t>MBT26</t>
+  </si>
+  <si>
+    <t>MBT27</t>
+  </si>
+  <si>
+    <t>MBT34</t>
+  </si>
+  <si>
+    <t>ARS</t>
   </si>
 </sst>
 </file>
@@ -565,9 +568,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -884,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DE06CA-9A05-4E52-A7E5-ED406C4952B7}">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -903,6 +907,9 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>153</v>
+      </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
@@ -914,1433 +921,1433 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>125</v>
+      <c r="A2" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>126</v>
+      <c r="A3" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>127</v>
+      <c r="A4" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>128</v>
+      <c r="A5" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" t="s">
         <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" t="s">
         <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>131</v>
+      <c r="A9" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>132</v>
+      <c r="A10" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="B10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
       <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" t="s">
         <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" t="s">
-        <v>148</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>90</v>
+      <c r="A12" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="B12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>151</v>
+      <c r="A13" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="B13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B21" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D25">
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B27" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B28" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D28">
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B30" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B31" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D31">
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B32" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F32" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D33">
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F33" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B34" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D34">
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F34" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B35" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B36" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D36">
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B37" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D37">
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D39">
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F39" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B40" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D40">
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F40" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B41" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F41" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B42" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D42">
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F42" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B43" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D43">
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B44" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B45" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C45" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D45">
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B46" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D46">
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B47" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F47" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B48" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D48">
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F48" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B49" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D49">
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F49" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F50" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B51" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C51" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D51">
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F51" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B52" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D52">
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F52" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B53" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C53" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B54" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C54" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D54">
         <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B55" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D55">
         <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B56" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C56" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F56" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B57" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C57" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D57">
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F57" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D58">
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F58" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B59" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C59" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F59" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B60" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C60" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D60">
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F60" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B61" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C61" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D61">
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F61" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B62" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C62" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F62" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B63" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C63" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D63">
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F63" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B64" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C64" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D64">
         <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F64" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F65" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B66" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C66" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D66">
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F66" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B67" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C67" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D67">
         <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F67" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B68" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F68" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B69" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C69" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D69">
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F69" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D70">
         <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F70" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B71" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C71" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F71" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B72" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C72" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D72">
         <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F72" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B73" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C73" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D73">
         <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F73" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2360,362 +2367,362 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/arsenic/raw-data/meta-arsenic.xlsx
+++ b/arsenic/raw-data/meta-arsenic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b3bbfbef5e37dc7/Documents/R_PHD_analysis/Chapter3/16S/DNA/arsenic/raw-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="252" documentId="8_{FC874E2C-5C94-4C61-A625-5B56D18C14CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E8A7BE8-FC46-4FFC-96D0-C26F23E6D237}"/>
+  <xr:revisionPtr revIDLastSave="289" documentId="8_{FC874E2C-5C94-4C61-A625-5B56D18C14CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{167CF4ED-D0A2-4138-9C3E-C68C273F02FF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{07C23BD9-980A-46D7-8938-0E3DE2E10BC9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="163">
   <si>
     <t>sample-id</t>
   </si>
@@ -487,9 +487,6 @@
     <t>MBC12A</t>
   </si>
   <si>
-    <t>LRV_8.5_3</t>
-  </si>
-  <si>
     <t>MBA36</t>
   </si>
   <si>
@@ -526,7 +523,7 @@
     <t>MBT34</t>
   </si>
   <si>
-    <t>ARS</t>
+    <t>SEN</t>
   </si>
 </sst>
 </file>
@@ -888,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DE06CA-9A05-4E52-A7E5-ED406C4952B7}">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -908,7 +905,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -937,7 +934,7 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -957,7 +954,7 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -977,7 +974,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -997,7 +994,7 @@
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -1017,7 +1014,7 @@
         <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -1037,7 +1034,7 @@
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -1057,7 +1054,7 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -1077,7 +1074,7 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -1097,7 +1094,7 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -1117,7 +1114,7 @@
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -1137,7 +1134,7 @@
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -1145,7 +1142,7 @@
         <v>149</v>
       </c>
       <c r="B13" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -1157,7 +1154,7 @@
         <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -1177,7 +1174,7 @@
         <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -1197,7 +1194,7 @@
         <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -1217,7 +1214,7 @@
         <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -1237,7 +1234,7 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -1257,7 +1254,7 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -1277,7 +1274,7 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -1297,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -1317,7 +1314,7 @@
         <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -1337,7 +1334,7 @@
         <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -1357,7 +1354,7 @@
         <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -1377,7 +1374,7 @@
         <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -1397,7 +1394,7 @@
         <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -1417,7 +1414,7 @@
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -1437,7 +1434,7 @@
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -1457,7 +1454,7 @@
         <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -1477,7 +1474,7 @@
         <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -1497,7 +1494,7 @@
         <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -1517,7 +1514,7 @@
         <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -1537,7 +1534,7 @@
         <v>6</v>
       </c>
       <c r="F32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -1557,7 +1554,7 @@
         <v>6</v>
       </c>
       <c r="F33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -1577,7 +1574,7 @@
         <v>6</v>
       </c>
       <c r="F34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -1597,7 +1594,7 @@
         <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -1617,7 +1614,7 @@
         <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
@@ -1637,7 +1634,7 @@
         <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
@@ -1657,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -1675,7 +1672,7 @@
         <v>5</v>
       </c>
       <c r="F39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -1695,7 +1692,7 @@
         <v>5</v>
       </c>
       <c r="F40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -1715,12 +1712,12 @@
         <v>6</v>
       </c>
       <c r="F41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B42" t="s">
         <v>145</v>
@@ -1735,12 +1732,12 @@
         <v>6</v>
       </c>
       <c r="F42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B43" t="s">
         <v>145</v>
@@ -1755,7 +1752,7 @@
         <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
@@ -1775,12 +1772,12 @@
         <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B45" t="s">
         <v>145</v>
@@ -1795,12 +1792,12 @@
         <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B46" t="s">
         <v>145</v>
@@ -1815,7 +1812,7 @@
         <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
@@ -1835,7 +1832,7 @@
         <v>5</v>
       </c>
       <c r="F47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -1855,7 +1852,7 @@
         <v>5</v>
       </c>
       <c r="F48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
@@ -1875,7 +1872,7 @@
         <v>5</v>
       </c>
       <c r="F49" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
@@ -1893,7 +1890,7 @@
         <v>6</v>
       </c>
       <c r="F50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
@@ -1913,7 +1910,7 @@
         <v>6</v>
       </c>
       <c r="F51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
@@ -1933,7 +1930,7 @@
         <v>6</v>
       </c>
       <c r="F52" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
@@ -1953,7 +1950,7 @@
         <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
@@ -1973,7 +1970,7 @@
         <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
@@ -1993,7 +1990,7 @@
         <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
@@ -2013,7 +2010,7 @@
         <v>5</v>
       </c>
       <c r="F56" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
@@ -2033,7 +2030,7 @@
         <v>5</v>
       </c>
       <c r="F57" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
@@ -2051,7 +2048,7 @@
         <v>5</v>
       </c>
       <c r="F58" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
@@ -2071,12 +2068,12 @@
         <v>6</v>
       </c>
       <c r="F59" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B60" t="s">
         <v>147</v>
@@ -2091,12 +2088,12 @@
         <v>6</v>
       </c>
       <c r="F60" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B61" t="s">
         <v>147</v>
@@ -2111,7 +2108,7 @@
         <v>6</v>
       </c>
       <c r="F61" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
@@ -2131,12 +2128,12 @@
         <v>7</v>
       </c>
       <c r="F62" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B63" t="s">
         <v>147</v>
@@ -2151,12 +2148,12 @@
         <v>7</v>
       </c>
       <c r="F63" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B64" t="s">
         <v>147</v>
@@ -2171,7 +2168,7 @@
         <v>7</v>
       </c>
       <c r="F64" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
@@ -2189,7 +2186,7 @@
         <v>5</v>
       </c>
       <c r="F65" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
@@ -2209,7 +2206,7 @@
         <v>5</v>
       </c>
       <c r="F66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
@@ -2229,7 +2226,7 @@
         <v>5</v>
       </c>
       <c r="F67" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
@@ -2249,7 +2246,7 @@
         <v>6</v>
       </c>
       <c r="F68" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
@@ -2269,7 +2266,7 @@
         <v>6</v>
       </c>
       <c r="F69" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
@@ -2287,7 +2284,7 @@
         <v>6</v>
       </c>
       <c r="F70" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
@@ -2307,12 +2304,12 @@
         <v>7</v>
       </c>
       <c r="F71" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B72" t="s">
         <v>144</v>
@@ -2327,12 +2324,12 @@
         <v>7</v>
       </c>
       <c r="F72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B73" t="s">
         <v>144</v>
@@ -2347,7 +2344,7 @@
         <v>7</v>
       </c>
       <c r="F73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
